--- a/src/main/webapp/resources/data/분류표.xlsx
+++ b/src/main/webapp/resources/data/분류표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHRDI-04\Desktop\[SPRING] UNI_BOWL\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHRDI-04\Desktop\UNI_BOWL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,58 @@
   </si>
   <si>
     <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄싱글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연령분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +217,15 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -194,20 +255,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -225,6 +289,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>208821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444011</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>205890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5994156" y="2451592"/>
+          <a:ext cx="209550" cy="310661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>150201</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>455001</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6008076" y="3524251"/>
+          <a:ext cx="209550" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>150202</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>18318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>455002</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6008077" y="3113943"/>
+          <a:ext cx="209550" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117029</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21779</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>421829</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5974904" y="2692442"/>
+          <a:ext cx="209550" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142471</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>32567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447271</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>29636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6000346" y="2915711"/>
+          <a:ext cx="209550" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,30 +779,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -597,15 +889,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -620,6 +920,18 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -634,6 +946,18 @@
       <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -648,6 +972,18 @@
       <c r="E12" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -656,17 +992,47 @@
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/webapp/resources/data/분류표.xlsx
+++ b/src/main/webapp/resources/data/분류표.xlsx
@@ -102,95 +102,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄싱글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>취소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단고정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리미엄싱글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리미엄더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이선좌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌석X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌석분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연령분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어린이</t>
+    <t>seat-empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat-none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premiumSingle-empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premiumDouble-empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat-disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat-active</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,11 +268,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,35 +779,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -847,7 +849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -867,7 +869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -878,10 +880,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -889,51 +891,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -944,91 +936,92 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G13" s="1">
         <v>3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G14" s="1">
         <v>4</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G15" s="1">
         <v>5</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J16" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G1:J1"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/resources/data/분류표.xlsx
+++ b/src/main/webapp/resources/data/분류표.xlsx
@@ -74,7 +74,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상영종료</t>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄싱글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat-empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat-none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premiumSingle-empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premiumDouble-empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat-disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat-active</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -82,115 +190,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단고정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리미엄싱글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리미엄더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이선좌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌석X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌석분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seat-empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seat-none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>premiumSingle-empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>premiumDouble-empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seat-disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seat-active</t>
+    <t>상영종료(논리삭제)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +782,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -823,10 +823,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -880,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -893,36 +893,36 @@
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -930,22 +930,22 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -953,22 +953,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -976,10 +976,10 @@
         <v>3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -987,10 +987,10 @@
         <v>4</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -998,15 +998,15 @@
         <v>5</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.3">
